--- a/B2B/Task.xlsx
+++ b/B2B/Task.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-50060" yWindow="-10560" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="1080" windowWidth="30240" windowHeight="17760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="keywords" sheetId="1" state="visible" r:id="rId1"/>
@@ -473,10 +473,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D226"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -487,9 +487,9 @@
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Texas Instruments</t>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>ABB</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -503,9 +503,9 @@
       <c r="D1" s="1" t="n"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>National Semiconductor</t>
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ABRACON</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -519,14 +519,14 @@
       <c r="D2" s="2" t="n"/>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Analog Devices</t>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>AC/DC</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C3" s="6" t="n">
@@ -535,9 +535,9 @@
       <c r="D3" s="2" t="n"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>ADI</t>
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Acer</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -551,14 +551,14 @@
       <c r="D4" s="2" t="n"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Maxim</t>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>ADC</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C5" s="6" t="n">
@@ -569,7 +569,7 @@
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Hittite</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -585,12 +585,12 @@
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>MICROCHIP</t>
+          <t>AIRBORN</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>品牌/品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C7" s="6" t="n">
@@ -601,7 +601,7 @@
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Microsemi</t>
+          <t>ALLEGRO</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Micrel</t>
+          <t>ALLIANCE</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Actel</t>
+          <t>ALTERA</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>BROADCOM</t>
+          <t>Ametek</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -665,7 +665,7 @@
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Avago</t>
+          <t>AMPHENOL</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -681,12 +681,12 @@
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>INFINEON</t>
+          <t>amplifier</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C13" s="6" t="n">
@@ -695,9 +695,9 @@
       <c r="D13" s="2" t="n"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>International Rectifier</t>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Analog Devices</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Cypress</t>
+          <t>ASEA</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="16" ht="16" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Fairchild</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="17" ht="16" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>ONSEMI</t>
+          <t>Avago</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -761,7 +761,7 @@
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>NXP</t>
+          <t>AVX</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -777,12 +777,12 @@
     <row r="19" ht="16" customHeight="1">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>RENESAS</t>
+          <t>Battery Management</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C19" s="6" t="n">
@@ -793,12 +793,12 @@
     <row r="20" ht="16" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Intersil</t>
+          <t>bluetooth</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C20" s="6" t="n">
@@ -809,7 +809,7 @@
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Dialog</t>
+          <t>BOURNS</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="22" ht="16" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>IDT</t>
+          <t>BROADCOM</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -841,12 +841,12 @@
     <row r="23" ht="16" customHeight="1">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Integrated Device Technology</t>
+          <t>bus line</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C23" s="6" t="n">
@@ -857,12 +857,12 @@
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>YAGEO</t>
+          <t>capacitor</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C24" s="6" t="n">
@@ -873,7 +873,7 @@
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Kemet</t>
+          <t>CIRRUS LOGIC</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
@@ -889,12 +889,12 @@
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>VISHAY</t>
+          <t>Clock generators</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C26" s="6" t="n">
@@ -905,12 +905,12 @@
     <row r="27" ht="16" customHeight="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>XILINX</t>
+          <t>comparator</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C27" s="6" t="n">
@@ -921,7 +921,7 @@
     <row r="28" ht="16" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>ALLEGRO</t>
+          <t>COSEL</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -937,12 +937,12 @@
     <row r="29" ht="16" customHeight="1">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>DIODES</t>
+          <t>Cypress</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>品牌/品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C29" s="6" t="n">
@@ -950,74 +950,70 @@
       </c>
       <c r="D29" s="2" t="n"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>MICRON</t>
+          <t>DAC</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C30" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="2" t="n"/>
-    </row>
-    <row r="31" ht="16" customHeight="1">
+    </row>
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>NEXPERIA</t>
+          <t>DC/DC</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C31" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="n"/>
-    </row>
-    <row r="32" ht="16" customHeight="1">
+    </row>
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>LATTICE</t>
+          <t>DDR3</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C32" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="n"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
+    </row>
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>MAXLINEAR</t>
+          <t>DDR4</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C33" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="2" t="n"/>
-    </row>
-    <row r="34" ht="16" customHeight="1">
+    </row>
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>FTDI</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -1028,12 +1024,11 @@
       <c r="C34" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="2" t="n"/>
-    </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="7" t="inlineStr">
-        <is>
-          <t>STM32</t>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>Delta</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
@@ -1044,12 +1039,11 @@
       <c r="C35" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="n"/>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>STMicroelectronics</t>
+          <t>DEUTSCH</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
@@ -1064,7 +1058,7 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>ALTERA</t>
+          <t>Dialog</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
@@ -1079,7 +1073,7 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>INTEL</t>
+          <t>DIGI</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
@@ -1094,12 +1088,12 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>ISSI</t>
+          <t>Digital potentiometers</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C39" s="6" t="n">
@@ -1109,12 +1103,12 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>SKYWORKS</t>
+          <t>DIODES</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品牌/品类</t>
         </is>
       </c>
       <c r="C40" s="6" t="n">
@@ -1124,12 +1118,12 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>SILICON LABS</t>
+          <t>DPU</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C41" s="6" t="n">
@@ -1139,12 +1133,12 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>WINBOND</t>
+          <t>DSP</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C42" s="6" t="n">
@@ -1154,7 +1148,7 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>EVERLIGHT</t>
+          <t>Dunkermotoren</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
@@ -1169,7 +1163,7 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>VICOR</t>
+          <t>E2V</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
@@ -1184,7 +1178,7 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>MITSUBISHI</t>
+          <t>EATON</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
@@ -1199,7 +1193,7 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>ROHM</t>
+          <t>EPCOS</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
@@ -1214,7 +1208,7 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>SITIME</t>
+          <t>EPSON</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
@@ -1229,12 +1223,12 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>MACOM</t>
+          <t>Ethernet</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C48" s="6" t="n">
@@ -1244,7 +1238,7 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>CIRRUS LOGIC</t>
+          <t>EVERLIGHT</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -1259,7 +1253,7 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>MARVELL</t>
+          <t>Fairchild</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
@@ -1274,12 +1268,12 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Monolithic Power Systems</t>
+          <t>flip-flop</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C51" s="6" t="n">
@@ -1289,7 +1283,7 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>NORDIC</t>
+          <t>Franklin</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
@@ -1304,12 +1298,12 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>IXYS</t>
+          <t>frequency converter</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C53" s="6" t="n">
@@ -1319,7 +1313,7 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>E2V</t>
+          <t>FTDI</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -1334,7 +1328,7 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>GIGADEVICE</t>
+          <t>FUJI ELECTRIC</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -1349,12 +1343,12 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>GOWIN</t>
+          <t>gate driver</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C56" s="6" t="n">
@@ -1364,7 +1358,7 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>PSEMI</t>
+          <t>GIGADEVICE</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -1379,7 +1373,7 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>ALLIANCE</t>
+          <t>GOWIN</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -1394,12 +1388,12 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>QORVO</t>
+          <t>GPU</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C59" s="6" t="n">
@@ -1409,7 +1403,7 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>EPSON</t>
+          <t>HAMMOND</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -1424,7 +1418,7 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>LITTLEFUSE</t>
+          <t>HARTING</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
@@ -1439,12 +1433,12 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>RECOM</t>
+          <t>HDMI</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C62" s="6" t="n">
@@ -1454,7 +1448,7 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>SUNON</t>
+          <t>Hewlett-Packard</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
@@ -1469,7 +1463,7 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>ABRACON</t>
+          <t>HONEYWELL</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
@@ -1484,7 +1478,7 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
@@ -1499,12 +1493,12 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>MURATA</t>
+          <t>IC components</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C66" s="6" t="n">
@@ -1514,7 +1508,7 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>AVX</t>
+          <t>IDT</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
@@ -1529,12 +1523,12 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>EPCOS</t>
+          <t>IGBT</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C68" s="6" t="n">
@@ -1544,12 +1538,12 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>inductor</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C69" s="6" t="n">
@@ -1559,7 +1553,7 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>EATON</t>
+          <t>INFINEON</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
@@ -1574,7 +1568,7 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>PULSE</t>
+          <t>Integrated Device Technology</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
@@ -1589,7 +1583,7 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>KOA</t>
+          <t>INTEL</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
@@ -1604,7 +1598,7 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>TAIYO YUDEN</t>
+          <t>International Rectifier</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
@@ -1619,7 +1613,7 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>KNOWLES</t>
+          <t>Intersil</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
@@ -1634,12 +1628,12 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>WURTH</t>
+          <t>isolator</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C75" s="6" t="n">
@@ -1649,7 +1643,7 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>MULTICOMP</t>
+          <t>ISSI</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
@@ -1664,7 +1658,7 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>SUMIDA</t>
+          <t>ITT</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
@@ -1679,7 +1673,7 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>GREENLIANT</t>
+          <t>IXYS</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
@@ -1694,7 +1688,7 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>SEMTECH</t>
+          <t>Kemet</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
@@ -1709,7 +1703,7 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>BOURNS</t>
+          <t>KEYSIGHT</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
@@ -1724,7 +1718,7 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>SEMIKRON</t>
+          <t>KOA</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
@@ -1739,7 +1733,7 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>FUJI ELECTRIC</t>
+          <t>Kollmorgen</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
@@ -1754,7 +1748,7 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>OSRAM</t>
+          <t>Lafert</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -1769,7 +1763,7 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>HONEYWELL</t>
+          <t>LATTICE</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -1784,12 +1778,12 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>INVENSENSE</t>
+          <t>LCD driver</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C85" s="6" t="n">
@@ -1799,12 +1793,12 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>PHOENIX</t>
+          <t>LED driver</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C86" s="6" t="n">
@@ -1814,7 +1808,7 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>HAMMOND</t>
+          <t>LENOVO</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
@@ -1829,7 +1823,7 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>ITT</t>
+          <t>Lenze</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
@@ -1844,7 +1838,7 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>MELEXIS</t>
+          <t>LITTLEFUSE</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
@@ -1859,12 +1853,12 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>COSEL</t>
+          <t>logic gate</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C90" s="6" t="n">
@@ -1874,12 +1868,12 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>AIRBORN</t>
+          <t>LVDS</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C91" s="6" t="n">
@@ -1889,7 +1883,7 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>GELENAIR</t>
+          <t>MACOM</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -1904,7 +1898,7 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>HARTING</t>
+          <t>MAGNETICS</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -1919,7 +1913,7 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>HUBER+SUHNER</t>
+          <t>MARVELL</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -1932,9 +1926,9 @@
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="4" t="inlineStr">
-        <is>
-          <t>MOLEX</t>
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>Maxim</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -1949,7 +1943,7 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>MILL-MAX</t>
+          <t>MAXLINEAR</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
@@ -1964,12 +1958,12 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>AMPHENOL</t>
+          <t>MCU</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C97" s="6" t="n">
@@ -1979,7 +1973,7 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>TRIQUINT</t>
+          <t>MELEXIS</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
@@ -1994,12 +1988,12 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>TDK LAMDA</t>
+          <t>Micro Processor Unit</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C99" s="6" t="n">
@@ -2009,12 +2003,12 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>QUICKLOGIC</t>
+          <t>MICROCHIP</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品牌/品类</t>
         </is>
       </c>
       <c r="C100" s="6" t="n">
@@ -2024,7 +2018,7 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>RABBIT</t>
+          <t>MICRON</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -2039,7 +2033,7 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>DIGI</t>
+          <t>Microsemi</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -2054,7 +2048,7 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>MILL-MAX</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -2069,7 +2063,7 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>KEYSIGHT</t>
+          <t>MITSUBISHI</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
@@ -2084,7 +2078,7 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>MOLEX</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
@@ -2099,7 +2093,7 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>RUBYCON</t>
+          <t>Monolithic Power Systems</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
@@ -2114,7 +2108,7 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>RICKTEK</t>
+          <t>Mornsun</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
@@ -2129,12 +2123,12 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>TRACOPOWER</t>
+          <t>motor driver</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C108" s="6" t="n">
@@ -2144,12 +2138,12 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>WOLFSPEED</t>
+          <t>MPU</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C109" s="6" t="n">
@@ -2159,12 +2153,12 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>Mornsun</t>
+          <t>MRAM</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C110" s="6" t="n">
@@ -2174,7 +2168,7 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>GEEHY</t>
+          <t>MULTICOMP</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
@@ -2189,12 +2183,12 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>SILAN</t>
+          <t>multiplexer</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C112" s="6" t="n">
@@ -2204,7 +2198,7 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>SYNQOR</t>
+          <t>MURATA</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
@@ -2217,9 +2211,9 @@
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
-      <c r="A114" s="4" t="inlineStr">
-        <is>
-          <t>SUNLORD</t>
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>National Semiconductor</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
@@ -2234,7 +2228,7 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>FREEOXCUBE</t>
+          <t>NEXPERIA</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
@@ -2249,7 +2243,7 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>MAGNETICS</t>
+          <t>NORDIC</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
@@ -2264,7 +2258,7 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>DEUTSCH</t>
+          <t>NXP</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -2279,7 +2273,7 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>VACUUMSCHMELZE</t>
+          <t>ONSEMI</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
@@ -2294,12 +2288,12 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>GOLLEGE</t>
+          <t>Oscillators</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C119" s="6" t="n">
@@ -2309,7 +2303,7 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>OSRAM</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
@@ -2324,7 +2318,7 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>LENOVO</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
@@ -2339,12 +2333,12 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>passives</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C122" s="6" t="n">
@@ -2354,12 +2348,12 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>PCI Express</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C123" s="6" t="n">
@@ -2369,7 +2363,7 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>Hewlett-Packard</t>
+          <t>PHOENIX</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
@@ -2384,12 +2378,12 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>PMIC</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C125" s="6" t="n">
@@ -2399,12 +2393,12 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>Delta</t>
+          <t>power management</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C126" s="6" t="n">
@@ -2414,12 +2408,12 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>Wolong</t>
+          <t>power module</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C127" s="6" t="n">
@@ -2429,7 +2423,7 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>Lenze</t>
+          <t>PSEMI</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
@@ -2444,7 +2438,7 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>Schorch</t>
+          <t>PULSE</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
@@ -2459,7 +2453,7 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>Dunkermotoren</t>
+          <t>RABBIT</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
@@ -2474,12 +2468,12 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>Ametek</t>
+          <t>Real-time clocks</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C131" s="6" t="n">
@@ -2489,7 +2483,7 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>RoshX</t>
+          <t>RECOM</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
@@ -2504,12 +2498,12 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>Yaskawa</t>
+          <t>rectifier</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C133" s="6" t="n">
@@ -2519,12 +2513,12 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>Fasco</t>
+          <t>regulator</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C134" s="6" t="n">
@@ -2534,7 +2528,7 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>Franklin</t>
+          <t>RENESAS</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
@@ -2549,12 +2543,12 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>AMCI</t>
+          <t>resistor</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C136" s="6" t="n">
@@ -2564,7 +2558,7 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>ASEA</t>
+          <t>ROHM</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
@@ -2579,12 +2573,12 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>Lafert</t>
+          <t>RS-232</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C138" s="6" t="n">
@@ -2594,12 +2588,12 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>Kollmorgen</t>
+          <t>RS-485</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C139" s="6" t="n">
@@ -2609,7 +2603,7 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>IC components</t>
+          <t>RTC</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
@@ -2624,12 +2618,12 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>passives</t>
+          <t>RUBYCON</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C141" s="6" t="n">
@@ -2639,12 +2633,12 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>capacitor</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C142" s="6" t="n">
@@ -2654,12 +2648,12 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>resistor</t>
+          <t>Schorch</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C143" s="6" t="n">
@@ -2669,12 +2663,12 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>inductor</t>
+          <t>SEMIKRON</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C144" s="6" t="n">
@@ -2684,12 +2678,12 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>transistor</t>
+          <t>SEMTECH</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C145" s="6" t="n">
@@ -2699,12 +2693,12 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>rectifier</t>
+          <t>SIEMENS</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C146" s="6" t="n">
@@ -2714,12 +2708,12 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>thyristor</t>
+          <t>SILAN</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C147" s="6" t="n">
@@ -2729,12 +2723,12 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>IGBT</t>
+          <t>SILICON LABS</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C148" s="6" t="n">
@@ -2757,14 +2751,14 @@
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
-      <c r="A150" s="4" t="inlineStr">
-        <is>
-          <t>NOR Flash</t>
+      <c r="A150" s="7" t="inlineStr">
+        <is>
+          <t>STM32</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C150" s="6" t="n">
@@ -2774,12 +2768,12 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>DDR3</t>
+          <t>STMicroelectronics</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C151" s="6" t="n">
@@ -2789,27 +2783,27 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>DDR4</t>
+          <t>SUMIDA</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C152" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1">
+    <row r="153" ht="14" customHeight="1">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>PMIC</t>
+          <t>SUNON</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C153" s="6" t="n">
@@ -2819,27 +2813,27 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>MRAM</t>
+          <t>TAIYO YUDEN</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C154" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="155" ht="15" customHeight="1">
-      <c r="A155" s="4" t="inlineStr">
-        <is>
-          <t>power management</t>
+    <row r="155" ht="16" customHeight="1">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>Texas Instruments</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C155" s="6" t="n">
@@ -2849,7 +2843,7 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>voltage reference</t>
+          <t>thyristor</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
@@ -2864,12 +2858,12 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>amplifier</t>
+          <t>TRACOPOWER</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C157" s="6" t="n">
@@ -2879,7 +2873,7 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>PCI Express</t>
+          <t>transceiver</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
@@ -2894,7 +2888,7 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>DC/DC</t>
+          <t>transistor</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
@@ -2907,9 +2901,9 @@
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
-      <c r="A160" s="4" t="inlineStr">
-        <is>
-          <t>AC/DC</t>
+      <c r="A160" s="5" t="inlineStr">
+        <is>
+          <t>USB</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -2924,12 +2918,12 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>Battery Management</t>
+          <t>VACUUMSCHMELZE</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C161" s="6" t="n">
@@ -2939,12 +2933,12 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>power module</t>
+          <t>VICOR</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C162" s="6" t="n">
@@ -2954,12 +2948,12 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>DSP</t>
+          <t>VISHAY</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C163" s="6" t="n">
@@ -2969,7 +2963,7 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" s="4" t="inlineStr">
         <is>
-          <t>motor driver</t>
+          <t>voltage reference</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -2982,9 +2976,9 @@
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
-      <c r="A165" s="4" t="inlineStr">
-        <is>
-          <t>LED driver</t>
+      <c r="A165" s="7" t="inlineStr">
+        <is>
+          <t>WIFI</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
@@ -2999,12 +2993,12 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>LCD driver</t>
+          <t>WINBOND</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C166" s="6" t="n">
@@ -3014,12 +3008,12 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>comparator</t>
+          <t>Wolong</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C167" s="6" t="n">
@@ -3029,12 +3023,12 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>bus line</t>
+          <t>WURTH</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C168" s="6" t="n">
@@ -3044,12 +3038,12 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>frequency converter</t>
+          <t>XILINX</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C169" s="6" t="n">
@@ -3059,12 +3053,12 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>transceiver</t>
+          <t>YAGEO</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C170" s="6" t="n">
@@ -3074,12 +3068,12 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>ADC</t>
+          <t>Yaskawa</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C171" s="6" t="n">
@@ -3089,7 +3083,7 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>Zigbee</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
@@ -3100,519 +3094,6 @@
       <c r="C172" s="6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" ht="15" customHeight="1">
-      <c r="A173" s="4" t="inlineStr">
-        <is>
-          <t>Clock buffers</t>
-        </is>
-      </c>
-      <c r="B173" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C173" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" ht="15" customHeight="1">
-      <c r="A174" s="4" t="inlineStr">
-        <is>
-          <t>Clock generators</t>
-        </is>
-      </c>
-      <c r="B174" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C174" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" ht="15" customHeight="1">
-      <c r="A175" s="4" t="inlineStr">
-        <is>
-          <t>Oscillators</t>
-        </is>
-      </c>
-      <c r="B175" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C175" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" ht="15" customHeight="1">
-      <c r="A176" s="4" t="inlineStr">
-        <is>
-          <t>Real-time clocks</t>
-        </is>
-      </c>
-      <c r="B176" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C176" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" ht="15" customHeight="1">
-      <c r="A177" s="4" t="inlineStr">
-        <is>
-          <t>RTC</t>
-        </is>
-      </c>
-      <c r="B177" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C177" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" ht="15" customHeight="1">
-      <c r="A178" s="4" t="inlineStr">
-        <is>
-          <t>Digital potentiometers</t>
-        </is>
-      </c>
-      <c r="B178" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C178" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" ht="15" customHeight="1">
-      <c r="A179" s="4" t="inlineStr">
-        <is>
-          <t>Ethernet</t>
-        </is>
-      </c>
-      <c r="B179" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C179" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" ht="15" customHeight="1">
-      <c r="A180" s="4" t="inlineStr">
-        <is>
-          <t>HDMI</t>
-        </is>
-      </c>
-      <c r="B180" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C180" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" ht="15" customHeight="1">
-      <c r="A181" s="4" t="inlineStr">
-        <is>
-          <t>MIPI</t>
-        </is>
-      </c>
-      <c r="B181" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C181" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" ht="15" customHeight="1">
-      <c r="A182" s="4" t="inlineStr">
-        <is>
-          <t>RS-232</t>
-        </is>
-      </c>
-      <c r="B182" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C182" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" ht="15" customHeight="1">
-      <c r="A183" s="4" t="inlineStr">
-        <is>
-          <t>RS-485</t>
-        </is>
-      </c>
-      <c r="B183" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C183" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" ht="15" customHeight="1">
-      <c r="A184" s="4" t="inlineStr">
-        <is>
-          <t>LVDS</t>
-        </is>
-      </c>
-      <c r="B184" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C184" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" ht="15" customHeight="1">
-      <c r="A185" s="5" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="B185" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C185" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" ht="15" customHeight="1">
-      <c r="A186" s="4" t="inlineStr">
-        <is>
-          <t>isolator</t>
-        </is>
-      </c>
-      <c r="B186" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C186" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" ht="15" customHeight="1">
-      <c r="A187" s="4" t="inlineStr">
-        <is>
-          <t>gate driver</t>
-        </is>
-      </c>
-      <c r="B187" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C187" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" ht="15" customHeight="1">
-      <c r="A188" s="4" t="inlineStr">
-        <is>
-          <t>flip-flop</t>
-        </is>
-      </c>
-      <c r="B188" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C188" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" ht="15" customHeight="1">
-      <c r="A189" s="4" t="inlineStr">
-        <is>
-          <t>multiplexer</t>
-        </is>
-      </c>
-      <c r="B189" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C189" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" ht="15" customHeight="1">
-      <c r="A190" s="4" t="inlineStr">
-        <is>
-          <t>logic gate</t>
-        </is>
-      </c>
-      <c r="B190" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C190" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" ht="15" customHeight="1">
-      <c r="A191" s="4" t="inlineStr">
-        <is>
-          <t>Micro Processor Unit</t>
-        </is>
-      </c>
-      <c r="B191" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C191" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" ht="15" customHeight="1">
-      <c r="A192" s="4" t="inlineStr">
-        <is>
-          <t>MPU</t>
-        </is>
-      </c>
-      <c r="B192" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C192" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" ht="15" customHeight="1">
-      <c r="A193" s="4" t="inlineStr">
-        <is>
-          <t>MCU</t>
-        </is>
-      </c>
-      <c r="B193" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C193" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" ht="15" customHeight="1">
-      <c r="A194" s="4" t="inlineStr">
-        <is>
-          <t>GPU</t>
-        </is>
-      </c>
-      <c r="B194" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C194" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" ht="15" customHeight="1">
-      <c r="A195" s="4" t="inlineStr">
-        <is>
-          <t>DPU</t>
-        </is>
-      </c>
-      <c r="B195" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C195" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" ht="15" customHeight="1">
-      <c r="A196" s="4" t="inlineStr">
-        <is>
-          <t>regulator</t>
-        </is>
-      </c>
-      <c r="B196" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C196" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" ht="15" customHeight="1">
-      <c r="A197" s="4" t="inlineStr">
-        <is>
-          <t>bluetooth</t>
-        </is>
-      </c>
-      <c r="B197" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C197" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" ht="15" customHeight="1">
-      <c r="A198" s="7" t="inlineStr">
-        <is>
-          <t>WIFI</t>
-        </is>
-      </c>
-      <c r="B198" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C198" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" ht="15" customHeight="1">
-      <c r="A199" s="4" t="inlineStr">
-        <is>
-          <t>Zigbee</t>
-        </is>
-      </c>
-      <c r="B199" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C199" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" ht="15" customHeight="1">
-      <c r="A200" s="4" t="n"/>
-      <c r="B200" s="3" t="n"/>
-    </row>
-    <row r="201" ht="15" customHeight="1">
-      <c r="A201" s="4" t="n"/>
-      <c r="B201" s="3" t="n"/>
-    </row>
-    <row r="202" ht="15" customHeight="1">
-      <c r="A202" s="4" t="n"/>
-      <c r="B202" s="3" t="n"/>
-    </row>
-    <row r="203" ht="15" customHeight="1">
-      <c r="A203" s="4" t="n"/>
-      <c r="B203" s="3" t="n"/>
-    </row>
-    <row r="204" ht="15" customHeight="1">
-      <c r="A204" s="4" t="n"/>
-      <c r="B204" s="3" t="n"/>
-    </row>
-    <row r="205" ht="16" customHeight="1">
-      <c r="A205" s="5" t="n"/>
-      <c r="B205" s="3" t="n"/>
-    </row>
-    <row r="206" ht="15" customHeight="1">
-      <c r="A206" s="4" t="n"/>
-      <c r="B206" s="3" t="n"/>
-    </row>
-    <row r="207" ht="15" customHeight="1">
-      <c r="A207" s="4" t="n"/>
-      <c r="B207" s="3" t="n"/>
-    </row>
-    <row r="208" ht="15" customHeight="1">
-      <c r="A208" s="4" t="n"/>
-      <c r="B208" s="3" t="n"/>
-    </row>
-    <row r="209" ht="15" customHeight="1">
-      <c r="A209" s="4" t="n"/>
-      <c r="B209" s="3" t="n"/>
-    </row>
-    <row r="210" ht="15" customHeight="1">
-      <c r="A210" s="4" t="n"/>
-      <c r="B210" s="3" t="n"/>
-    </row>
-    <row r="211" ht="15" customHeight="1">
-      <c r="A211" s="4" t="n"/>
-      <c r="B211" s="3" t="n"/>
-    </row>
-    <row r="212" ht="15" customHeight="1">
-      <c r="A212" s="4" t="n"/>
-      <c r="B212" s="3" t="n"/>
-    </row>
-    <row r="213" ht="15" customHeight="1">
-      <c r="A213" s="4" t="n"/>
-      <c r="B213" s="3" t="n"/>
-    </row>
-    <row r="214" ht="15" customHeight="1">
-      <c r="A214" s="4" t="n"/>
-      <c r="B214" s="3" t="n"/>
-    </row>
-    <row r="215" ht="15" customHeight="1">
-      <c r="A215" s="4" t="n"/>
-      <c r="B215" s="3" t="n"/>
-    </row>
-    <row r="216" ht="15" customHeight="1">
-      <c r="A216" s="4" t="n"/>
-      <c r="B216" s="3" t="n"/>
-    </row>
-    <row r="217" ht="15" customHeight="1">
-      <c r="A217" s="3" t="n"/>
-      <c r="B217" s="3" t="n"/>
-    </row>
-    <row r="218" ht="15" customHeight="1">
-      <c r="A218" s="4" t="n"/>
-      <c r="B218" s="3" t="n"/>
-    </row>
-    <row r="219" ht="15" customHeight="1">
-      <c r="A219" s="4" t="n"/>
-      <c r="B219" s="3" t="n"/>
-    </row>
-    <row r="220" ht="15" customHeight="1">
-      <c r="A220" s="4" t="n"/>
-      <c r="B220" s="3" t="n"/>
-    </row>
-    <row r="221" ht="15" customHeight="1">
-      <c r="A221" s="4" t="n"/>
-      <c r="B221" s="3" t="n"/>
-    </row>
-    <row r="222" ht="15" customHeight="1">
-      <c r="A222" s="4" t="n"/>
-      <c r="B222" s="3" t="n"/>
-    </row>
-    <row r="223" ht="15" customHeight="1">
-      <c r="A223" s="4" t="n"/>
-      <c r="B223" s="3" t="n"/>
-    </row>
-    <row r="224" ht="15" customHeight="1">
-      <c r="A224" s="4" t="n"/>
-      <c r="B224" s="3" t="n"/>
-    </row>
-    <row r="225" ht="15" customHeight="1">
-      <c r="A225" s="4" t="n"/>
-      <c r="B225" s="3" t="n"/>
-    </row>
-    <row r="226" ht="15" customHeight="1">
-      <c r="A226" s="4" t="n"/>
-      <c r="B226" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/B2B/Task.xlsx
+++ b/B2B/Task.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="1080" windowWidth="30240" windowHeight="17760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="keywords" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="keywords2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="keywordAll" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="宋体"/>
       <family val="2"/>
@@ -68,13 +70,27 @@
       <sz val="10"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CDDFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -107,6 +123,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,10 +495,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="E175" sqref="E175"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -873,12 +895,12 @@
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>CIRRUS LOGIC</t>
+          <t>Clock buffers</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C25" s="6" t="n">
@@ -968,7 +990,7 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>DC/DC</t>
+          <t>DDR3</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
@@ -983,7 +1005,7 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>DDR3</t>
+          <t>DDR4</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
@@ -998,12 +1020,12 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>DDR4</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C33" s="6" t="n">
@@ -1013,7 +1035,7 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>Delta</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -1028,7 +1050,7 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Delta</t>
+          <t>DEUTSCH</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
@@ -1043,7 +1065,7 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>DEUTSCH</t>
+          <t>Dialog</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
@@ -1058,7 +1080,7 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Dialog</t>
+          <t>DIGI</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
@@ -1073,12 +1095,12 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>DIGI</t>
+          <t>Digital potentiometers</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C38" s="6" t="n">
@@ -1088,12 +1110,12 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Digital potentiometers</t>
+          <t>DIODES</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌/品类</t>
         </is>
       </c>
       <c r="C39" s="6" t="n">
@@ -1103,12 +1125,12 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>DIODES</t>
+          <t>DPU</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>品牌/品类</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C40" s="6" t="n">
@@ -1118,7 +1140,7 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>DPU</t>
+          <t>DSP</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
@@ -1133,12 +1155,12 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>DSP</t>
+          <t>Dunkermotoren</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C42" s="6" t="n">
@@ -1148,7 +1170,7 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Dunkermotoren</t>
+          <t>E2V</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
@@ -1163,7 +1185,7 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>E2V</t>
+          <t>EATON</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
@@ -1178,7 +1200,7 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>EATON</t>
+          <t>EPCOS</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
@@ -1193,7 +1215,7 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>EPCOS</t>
+          <t>EPSON</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
@@ -1208,12 +1230,12 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>EPSON</t>
+          <t>Ethernet</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C47" s="6" t="n">
@@ -1223,12 +1245,12 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Ethernet</t>
+          <t>EVERLIGHT</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C48" s="6" t="n">
@@ -1238,7 +1260,7 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>EVERLIGHT</t>
+          <t>Fairchild</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -1253,7 +1275,7 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Fairchild</t>
+          <t>Fasco</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
@@ -1583,7 +1605,7 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>INTEL</t>
+          <t>International Rectifier</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
@@ -1598,7 +1620,7 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>International Rectifier</t>
+          <t>Intersil</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
@@ -1613,12 +1635,12 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Intersil</t>
+          <t>isolator</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C74" s="6" t="n">
@@ -1628,12 +1650,12 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>isolator</t>
+          <t>ISSI</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C75" s="6" t="n">
@@ -1643,7 +1665,7 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>ISSI</t>
+          <t>ITT</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
@@ -1658,7 +1680,7 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>ITT</t>
+          <t>IXYS</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
@@ -1673,7 +1695,7 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>IXYS</t>
+          <t>Kemet</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
@@ -1688,7 +1710,7 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Kemet</t>
+          <t>KEYSIGHT</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
@@ -1703,7 +1725,7 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>KEYSIGHT</t>
+          <t>KOA</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
@@ -1718,7 +1740,7 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>KOA</t>
+          <t>Kollmorgen</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
@@ -1733,7 +1755,7 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>Kollmorgen</t>
+          <t>Lafert</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
@@ -1748,7 +1770,7 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>Lafert</t>
+          <t>LATTICE</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -1763,12 +1785,12 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>LATTICE</t>
+          <t>LCD driver</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C84" s="6" t="n">
@@ -1778,7 +1800,7 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>LCD driver</t>
+          <t>LED driver</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
@@ -1793,12 +1815,12 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>LED driver</t>
+          <t>LENOVO</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C86" s="6" t="n">
@@ -1808,7 +1830,7 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>LENOVO</t>
+          <t>Lenze</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
@@ -1823,7 +1845,7 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>Lenze</t>
+          <t>LITTLEFUSE</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
@@ -1838,12 +1860,12 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>LITTLEFUSE</t>
+          <t>logic gate</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C89" s="6" t="n">
@@ -1853,7 +1875,7 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>logic gate</t>
+          <t>LVDS</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
@@ -1868,12 +1890,12 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>LVDS</t>
+          <t>MACOM</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C91" s="6" t="n">
@@ -1883,7 +1905,7 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>MACOM</t>
+          <t>MAGNETICS</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -1898,7 +1920,7 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>MAGNETICS</t>
+          <t>MARVELL</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -1913,7 +1935,7 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>MARVELL</t>
+          <t>MICRON</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -1926,9 +1948,9 @@
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="3" t="inlineStr">
-        <is>
-          <t>Maxim</t>
+      <c r="A95" s="4" t="inlineStr">
+        <is>
+          <t>MAXLINEAR</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -1943,12 +1965,12 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>MAXLINEAR</t>
+          <t>MCU</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C96" s="6" t="n">
@@ -1958,12 +1980,12 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>MCU</t>
+          <t>MELEXIS</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C97" s="6" t="n">
@@ -1973,12 +1995,12 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>MELEXIS</t>
+          <t>Micro Processor Unit</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C98" s="6" t="n">
@@ -1988,12 +2010,12 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>Micro Processor Unit</t>
+          <t>MICROCHIP</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌/品类</t>
         </is>
       </c>
       <c r="C99" s="6" t="n">
@@ -2003,12 +2025,12 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>MICROCHIP</t>
+          <t>MICRON</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>品牌/品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C100" s="6" t="n">
@@ -2018,7 +2040,7 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>MICRON</t>
+          <t>Microsemi</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -2033,7 +2055,7 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>Microsemi</t>
+          <t>MILL-MAX</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -2048,7 +2070,7 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>MILL-MAX</t>
+          <t>MITSUBISHI</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -2063,7 +2085,7 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>MITSUBISHI</t>
+          <t>MOLEX</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
@@ -2078,7 +2100,7 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>MOLEX</t>
+          <t>Monolithic Power Systems</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
@@ -2091,9 +2113,9 @@
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
-      <c r="A106" s="4" t="inlineStr">
-        <is>
-          <t>Monolithic Power Systems</t>
+      <c r="A106" s="8" t="inlineStr">
+        <is>
+          <t>Mornsun</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
@@ -2108,12 +2130,12 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>Mornsun</t>
+          <t>motor driver</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C107" s="6" t="n">
@@ -2123,7 +2145,7 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>motor driver</t>
+          <t>MPU</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
@@ -2138,7 +2160,7 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>MPU</t>
+          <t>MRAM</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
@@ -2153,12 +2175,12 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>MRAM</t>
+          <t>MULTICOMP</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C110" s="6" t="n">
@@ -2168,12 +2190,12 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>MULTICOMP</t>
+          <t>multiplexer</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C111" s="6" t="n">
@@ -2183,12 +2205,12 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>multiplexer</t>
+          <t>MURATA</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C112" s="6" t="n">
@@ -2196,9 +2218,9 @@
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
-      <c r="A113" s="4" t="inlineStr">
-        <is>
-          <t>MURATA</t>
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>National Semiconductor</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
@@ -2211,9 +2233,9 @@
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
-      <c r="A114" s="3" t="inlineStr">
-        <is>
-          <t>National Semiconductor</t>
+      <c r="A114" s="4" t="inlineStr">
+        <is>
+          <t>NEXPERIA</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
@@ -2228,7 +2250,7 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>NEXPERIA</t>
+          <t>NORDIC</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
@@ -2243,7 +2265,7 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>NORDIC</t>
+          <t>NXP</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
@@ -2258,7 +2280,7 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>NXP</t>
+          <t>ONSEMI</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -2273,12 +2295,12 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>ONSEMI</t>
+          <t>Oscillators</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C118" s="6" t="n">
@@ -2288,12 +2310,12 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>Oscillators</t>
+          <t>OSRAM</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C119" s="6" t="n">
@@ -2303,7 +2325,7 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>OSRAM</t>
+          <t>PANASONIC</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
@@ -2318,12 +2340,12 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>PANASONIC</t>
+          <t>passives</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C121" s="6" t="n">
@@ -2333,7 +2355,7 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>passives</t>
+          <t>PCI Express</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
@@ -2346,14 +2368,14 @@
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
-      <c r="A123" s="4" t="inlineStr">
-        <is>
-          <t>PCI Express</t>
+      <c r="A123" s="8" t="inlineStr">
+        <is>
+          <t>PHOENIX</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C123" s="6" t="n">
@@ -2363,12 +2385,12 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>PHOENIX</t>
+          <t>PMIC</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C124" s="6" t="n">
@@ -2378,7 +2400,7 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>PMIC</t>
+          <t>power management</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
@@ -2393,7 +2415,7 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>power management</t>
+          <t>power module</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
@@ -2408,12 +2430,12 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>power module</t>
+          <t>PSEMI</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C127" s="6" t="n">
@@ -2423,7 +2445,7 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>PSEMI</t>
+          <t>PULSE</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
@@ -2438,7 +2460,7 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>PULSE</t>
+          <t>RABBIT</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
@@ -2453,12 +2475,12 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>RABBIT</t>
+          <t>Real-time clocks</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C130" s="6" t="n">
@@ -2468,12 +2490,12 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>Real-time clocks</t>
+          <t>RECOM</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C131" s="6" t="n">
@@ -2483,12 +2505,12 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>RECOM</t>
+          <t>rectifier</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C132" s="6" t="n">
@@ -2498,7 +2520,7 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>rectifier</t>
+          <t>regulator</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
@@ -2511,14 +2533,14 @@
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
-      <c r="A134" s="4" t="inlineStr">
-        <is>
-          <t>regulator</t>
+      <c r="A134" s="8" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C134" s="6" t="n">
@@ -2528,12 +2550,12 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>RENESAS</t>
+          <t>resistor</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C135" s="6" t="n">
@@ -2543,12 +2565,12 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>resistor</t>
+          <t>ROHM</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C136" s="6" t="n">
@@ -2558,12 +2580,12 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>ROHM</t>
+          <t>RS-232</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C137" s="6" t="n">
@@ -2573,7 +2595,7 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>RS-232</t>
+          <t>RS-485</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
@@ -2588,7 +2610,7 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>RS-485</t>
+          <t>RTC</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
@@ -2603,12 +2625,12 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>RTC</t>
+          <t>RUBYCON</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C140" s="6" t="n">
@@ -2618,7 +2640,7 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>RUBYCON</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
@@ -2633,7 +2655,7 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>SAMSUNG</t>
+          <t>Schorch</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
@@ -2648,7 +2670,7 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>Schorch</t>
+          <t>SEMIKRON</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
@@ -2663,7 +2685,7 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>SEMIKRON</t>
+          <t>SEMTECH</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
@@ -2676,9 +2698,9 @@
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
-      <c r="A145" s="4" t="inlineStr">
-        <is>
-          <t>SEMTECH</t>
+      <c r="A145" s="8" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
@@ -2693,7 +2715,7 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>SILAN</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
@@ -2708,7 +2730,7 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>SILAN</t>
+          <t>SILICON LABS</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
@@ -2723,12 +2745,12 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>SILICON LABS</t>
+          <t>SRAM</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C148" s="6" t="n">
@@ -2736,14 +2758,14 @@
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
-      <c r="A149" s="4" t="inlineStr">
-        <is>
-          <t>SRAM</t>
+      <c r="A149" s="7" t="inlineStr">
+        <is>
+          <t>STM32</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C149" s="6" t="n">
@@ -2751,9 +2773,9 @@
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
-      <c r="A150" s="7" t="inlineStr">
-        <is>
-          <t>STM32</t>
+      <c r="A150" s="4" t="inlineStr">
+        <is>
+          <t>STMicroelectronics</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
@@ -2768,7 +2790,7 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>STMicroelectronics</t>
+          <t>SUMIDA</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
@@ -2781,9 +2803,9 @@
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
-      <c r="A152" s="4" t="inlineStr">
-        <is>
-          <t>SUMIDA</t>
+      <c r="A152" s="8" t="inlineStr">
+        <is>
+          <t>SUNON</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
@@ -2798,7 +2820,7 @@
     <row r="153" ht="14" customHeight="1">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>SUNON</t>
+          <t>TAIYO YUDEN</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
@@ -2811,9 +2833,9 @@
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
-      <c r="A154" s="4" t="inlineStr">
-        <is>
-          <t>TAIYO YUDEN</t>
+      <c r="A154" s="3" t="inlineStr">
+        <is>
+          <t>Texas Instruments</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
@@ -2826,14 +2848,14 @@
       </c>
     </row>
     <row r="155" ht="16" customHeight="1">
-      <c r="A155" s="3" t="inlineStr">
-        <is>
-          <t>Texas Instruments</t>
+      <c r="A155" s="4" t="inlineStr">
+        <is>
+          <t>thyristor</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C155" s="6" t="n">
@@ -2843,12 +2865,12 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>thyristor</t>
+          <t>TRACOPOWER</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C156" s="6" t="n">
@@ -2858,12 +2880,12 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>TRACOPOWER</t>
+          <t>transceiver</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C157" s="6" t="n">
@@ -2873,7 +2895,7 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>transceiver</t>
+          <t>transistor</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
@@ -2886,9 +2908,9 @@
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
-      <c r="A159" s="4" t="inlineStr">
-        <is>
-          <t>transistor</t>
+      <c r="A159" s="5" t="inlineStr">
+        <is>
+          <t>USB</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
@@ -2901,14 +2923,14 @@
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
-      <c r="A160" s="5" t="inlineStr">
-        <is>
-          <t>USB</t>
+      <c r="A160" s="4" t="inlineStr">
+        <is>
+          <t>VACUUMSCHMELZE</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C160" s="6" t="n">
@@ -2916,9 +2938,9 @@
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
-      <c r="A161" s="4" t="inlineStr">
-        <is>
-          <t>VACUUMSCHMELZE</t>
+      <c r="A161" s="8" t="inlineStr">
+        <is>
+          <t>VICOR</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -2933,7 +2955,7 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>VICOR</t>
+          <t>VISHAY</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -2948,12 +2970,12 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>VISHAY</t>
+          <t>voltage reference</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C163" s="6" t="n">
@@ -2961,9 +2983,9 @@
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
-      <c r="A164" s="4" t="inlineStr">
-        <is>
-          <t>voltage reference</t>
+      <c r="A164" s="7" t="inlineStr">
+        <is>
+          <t>WIFI</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -2976,14 +2998,14 @@
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
-      <c r="A165" s="7" t="inlineStr">
-        <is>
-          <t>WIFI</t>
+      <c r="A165" s="4" t="inlineStr">
+        <is>
+          <t>WINBOND</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>品类</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="C165" s="6" t="n">
@@ -2993,7 +3015,7 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>WINBOND</t>
+          <t>Wolong</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
@@ -3008,7 +3030,7 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>Wolong</t>
+          <t>WURTH</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
@@ -3023,7 +3045,7 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>WURTH</t>
+          <t>XILINX</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
@@ -3038,7 +3060,7 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>XILINX</t>
+          <t>YAGEO</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
@@ -3053,7 +3075,7 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>YAGEO</t>
+          <t>Yaskawa</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
@@ -3068,12 +3090,12 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>Yaskawa</t>
+          <t>Zigbee</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>品类</t>
         </is>
       </c>
       <c r="C171" s="6" t="n">
@@ -3081,22 +3103,1940 @@
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
-      <c r="A172" s="4" t="inlineStr">
-        <is>
-          <t>Zigbee</t>
-        </is>
-      </c>
-      <c r="B172" s="3" t="inlineStr">
-        <is>
-          <t>品类</t>
-        </is>
-      </c>
-      <c r="C172" s="6" t="n">
-        <v>1</v>
+      <c r="A172" s="7" t="inlineStr">
+        <is>
+          <t>материнская</t>
+        </is>
+      </c>
+      <c r="B172" s="9" t="inlineStr">
+        <is>
+          <t>品类</t>
+        </is>
+      </c>
+      <c r="C172" s="7" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SCHNEIDER</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>EATON</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AC/DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AC/DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AC/DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AC/DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AC/DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AC/DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AC/DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Analog Devices</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Delta</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Delta</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DEUTSCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ethernet</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ethernet</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>frequency converter</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>frequency converter</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>frequency converter</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HONEYWELL</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>isolator</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>isolator</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MAGNETICS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MAGNETICS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MAGNETICS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MICRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MITSUBISHI</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PANASONIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PHOENIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PULSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>regulator</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RS-485</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>WIFI</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A226"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>ABRACON</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>AC/DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Actel</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>ADC</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>ADI</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>AIRBORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>ALLEGRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>ALLIANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Atmel</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>ALTERA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>AMCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Ametek</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>AMPHENOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>amplifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Analog Devices</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>ASEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Avago</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>AVX</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Battery Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>bluetooth</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>BOURNS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>BROADCOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>bus line</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>capacitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>CIRRUS LOGIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Clock buffers</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Clock generators</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>comparator</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>COSEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>Cypress</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>DC/DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>DDR3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>DDR4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>Delta</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>DEUTSCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>Dialog</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>DIGI</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>Digital potentiometers</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>DIODES</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>DPU</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>JST</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>DSP</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>Dunkermotoren</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>E2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>EATON</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>EPCOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>EPSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>MPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>Ethernet</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>EVERLIGHT</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>Fairchild</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>Fasco</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>flip-flop</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>Franklin</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>FREEOXCUBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>frequency converter</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>FTDI</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>FUJI ELECTRIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>gate driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>GEEHY</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>GELENAIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>GIGADEVICE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>GOLLEGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>GOWIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>GREENLIANT</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>HAMMOND</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>HARTING</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>HDMI</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>Hewlett-Packard</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="15" customHeight="1">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>Hittite</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>HONEYWELL</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>HUBER+SUHNER</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t>IC components</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>IDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>IGBT</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>inductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>INFINEON</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>Integrated Device Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="inlineStr">
+        <is>
+          <t>INTEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>International Rectifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
+          <t>Intersil</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="inlineStr">
+        <is>
+          <t>INVENSENSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>isolator</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="inlineStr">
+        <is>
+          <t>ISSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
+          <t>IXYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>Kemet</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>KEYSIGHT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="inlineStr">
+        <is>
+          <t>KNOWLES</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>KOA</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>Kollmorgen</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>Lafert</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="inlineStr">
+        <is>
+          <t>LATTICE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="inlineStr">
+        <is>
+          <t>VPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="inlineStr">
+        <is>
+          <t>LCD driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="inlineStr">
+        <is>
+          <t>LED driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="inlineStr">
+        <is>
+          <t>LENOVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="inlineStr">
+        <is>
+          <t>Lenze</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="inlineStr">
+        <is>
+          <t>QUECTEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="inlineStr">
+        <is>
+          <t>LITTLEFUSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="inlineStr">
+        <is>
+          <t>logic gate</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="inlineStr">
+        <is>
+          <t>LVDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="inlineStr">
+        <is>
+          <t>MACOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="inlineStr">
+        <is>
+          <t>MAGNETICS</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="inlineStr">
+        <is>
+          <t>MARVELL</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="15" customHeight="1">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>Maxim</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="inlineStr">
+        <is>
+          <t>MAXLINEAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="inlineStr">
+        <is>
+          <t>MCU</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="inlineStr">
+        <is>
+          <t>MELEXIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>Micrel</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t>Micro Processor Unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>MICROCHIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="inlineStr">
+        <is>
+          <t>MICRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>Microsemi</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="inlineStr">
+        <is>
+          <t>MILL-MAX</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>MIPI</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>MITSUBISHI</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>MOLEX</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>Monolithic Power Systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>Mornsun</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="inlineStr">
+        <is>
+          <t>motor driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="inlineStr">
+        <is>
+          <t>MPU</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="inlineStr">
+        <is>
+          <t>MRAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>MULTICOMP</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="inlineStr">
+        <is>
+          <t>multiplexer</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="inlineStr">
+        <is>
+          <t>MURATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" ht="15" customHeight="1">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>National Semiconductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="inlineStr">
+        <is>
+          <t>NEXPERIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="inlineStr">
+        <is>
+          <t>NOR Flash</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="inlineStr">
+        <is>
+          <t>NORDIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="inlineStr">
+        <is>
+          <t>NXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="inlineStr">
+        <is>
+          <t>ONSEMI</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="inlineStr">
+        <is>
+          <t>Oscillators</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="inlineStr">
+        <is>
+          <t>OSRAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="inlineStr">
+        <is>
+          <t>PANASONIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="inlineStr">
+        <is>
+          <t>passives</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="inlineStr">
+        <is>
+          <t>Fimet</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="inlineStr">
+        <is>
+          <t>PCI Express</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="inlineStr">
+        <is>
+          <t>PHOENIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="inlineStr">
+        <is>
+          <t>PMIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="inlineStr">
+        <is>
+          <t>power management</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="inlineStr">
+        <is>
+          <t>power module</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="inlineStr">
+        <is>
+          <t>PSEMI</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="inlineStr">
+        <is>
+          <t>PULSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="inlineStr">
+        <is>
+          <t>QORVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="inlineStr">
+        <is>
+          <t>QUICKLOGIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="inlineStr">
+        <is>
+          <t>RABBIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="4" t="inlineStr">
+        <is>
+          <t>Real-time clocks</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="inlineStr">
+        <is>
+          <t>DRAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="inlineStr">
+        <is>
+          <t>RECOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="inlineStr">
+        <is>
+          <t>rectifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="inlineStr">
+        <is>
+          <t>regulator</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="inlineStr">
+        <is>
+          <t>RENESAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="inlineStr">
+        <is>
+          <t>FIFO</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="inlineStr">
+        <is>
+          <t>resistor</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="inlineStr">
+        <is>
+          <t>RICKTEK</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="inlineStr">
+        <is>
+          <t>ROHM</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="4" t="inlineStr">
+        <is>
+          <t>RoshX</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="inlineStr">
+        <is>
+          <t>RS-232</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="inlineStr">
+        <is>
+          <t>RS-485</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="inlineStr">
+        <is>
+          <t>RTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="inlineStr">
+        <is>
+          <t>RUBYCON</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="4" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="4" t="inlineStr">
+        <is>
+          <t>Schorch</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="inlineStr">
+        <is>
+          <t>SEMIKRON</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="inlineStr">
+        <is>
+          <t>SEMTECH</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="4" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="4" t="inlineStr">
+        <is>
+          <t>SILAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="7" t="inlineStr">
+        <is>
+          <t>sensor</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="4" t="inlineStr">
+        <is>
+          <t>current limit</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="4" t="inlineStr">
+        <is>
+          <t>SILICON LABS</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="4" t="inlineStr">
+        <is>
+          <t>SITIME</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="4" t="inlineStr">
+        <is>
+          <t>SKYWORKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="4" t="inlineStr">
+        <is>
+          <t>receiver</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="4" t="inlineStr">
+        <is>
+          <t>SRAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="7" t="inlineStr">
+        <is>
+          <t>STM32</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="4" t="inlineStr">
+        <is>
+          <t>switch</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="4" t="inlineStr">
+        <is>
+          <t>STMicroelectronics</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="4" t="inlineStr">
+        <is>
+          <t>SUMIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="4" t="inlineStr">
+        <is>
+          <t>SUNLORD</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="4" t="inlineStr">
+        <is>
+          <t>SUNON</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="4" t="inlineStr">
+        <is>
+          <t>SYNQOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="4" t="inlineStr">
+        <is>
+          <t>TAIYO YUDEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="4" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="4" t="inlineStr">
+        <is>
+          <t>TDK LAMDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" ht="15" customHeight="1">
+      <c r="A200" s="3" t="inlineStr">
+        <is>
+          <t>Texas Instruments</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="4" t="inlineStr">
+        <is>
+          <t>thyristor</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="4" t="inlineStr">
+        <is>
+          <t>TRACOPOWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="4" t="inlineStr">
+        <is>
+          <t>transceiver</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="4" t="inlineStr">
+        <is>
+          <t>transistor</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="4" t="inlineStr">
+        <is>
+          <t>TRIQUINT</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" ht="16" customHeight="1">
+      <c r="A206" s="5" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="4" t="inlineStr">
+        <is>
+          <t>VACUUMSCHMELZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="4" t="inlineStr">
+        <is>
+          <t>VICOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="4" t="inlineStr">
+        <is>
+          <t>VISHAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="4" t="inlineStr">
+        <is>
+          <t>voltage reference</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="7" t="inlineStr">
+        <is>
+          <t>WIFI</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="4" t="inlineStr">
+        <is>
+          <t>WINBOND</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="4" t="inlineStr">
+        <is>
+          <t>WOLFSPEED</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="4" t="inlineStr">
+        <is>
+          <t>Wolong</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="4" t="inlineStr">
+        <is>
+          <t>WURTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="4" t="inlineStr">
+        <is>
+          <t>XILINX</t>
+        </is>
+      </c>
+    </row>
+    <row r="217" ht="15" customHeight="1">
+      <c r="A217" s="3" t="inlineStr">
+        <is>
+          <t>mixer</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="4" t="inlineStr">
+        <is>
+          <t>modulator</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="4" t="inlineStr">
+        <is>
+          <t>synthesizer</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="7" t="inlineStr">
+        <is>
+          <t>mems</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="4" t="inlineStr">
+        <is>
+          <t>radar</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="4" t="inlineStr">
+        <is>
+          <t>demultiplexer</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="4" t="inlineStr">
+        <is>
+          <t>decoder</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="4" t="inlineStr">
+        <is>
+          <t>YAGEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="4" t="inlineStr">
+        <is>
+          <t>Yaskawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="4" t="inlineStr">
+        <is>
+          <t>Zigbee</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>